--- a/mnt/X销售线索.xlsx
+++ b/mnt/X销售线索.xlsx
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">销售线索!$A$1:$G$5</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,26 @@
   </si>
   <si>
     <t>责任人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碳排放-STO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撰写简单方案 PPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与对方沟通方案是否可行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撰写方案 方案基本框架为 LPGP形式的基金 以美国豁免条款募资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -206,6 +226,15 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,10 +540,10 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7:G8"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -522,9 +551,9 @@
     <col min="1" max="1" width="20.25" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.25" style="4" customWidth="1"/>
     <col min="3" max="3" width="30.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="71.875" style="12" customWidth="1"/>
+    <col min="4" max="5" width="12.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="50.125" style="12" customWidth="1"/>
     <col min="8" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
@@ -635,10 +664,28 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
+      <c r="A6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="15">
+        <v>43446</v>
+      </c>
+      <c r="E6" s="15">
+        <v>43452</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C7" s="9"/>
